--- a/data/trans_orig/ProblemasDormirP33b-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>73185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58219</v>
+        <v>57128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89647</v>
+        <v>91360</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1329151216657167</v>
+        <v>0.1329151216657166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.105733081758569</v>
+        <v>0.1037528950192265</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1628110726818703</v>
+        <v>0.1659235392695342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -762,19 +762,19 @@
         <v>81374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65949</v>
+        <v>68055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94702</v>
+        <v>96361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1666102544948934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1350269588442251</v>
+        <v>0.1393397706090624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1938989868071282</v>
+        <v>0.1972940176681155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -783,19 +783,19 @@
         <v>154560</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133045</v>
+        <v>134790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178581</v>
+        <v>178005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1487540128468673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1280472827773206</v>
+        <v>0.1297267047271581</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1718726963150922</v>
+        <v>0.1713188286115629</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>477433</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460971</v>
+        <v>459258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492399</v>
+        <v>493490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8670848783342834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8371889273181299</v>
+        <v>0.8340764607304655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.894266918241431</v>
+        <v>0.8962471049807733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>573</v>
@@ -833,19 +833,19 @@
         <v>407037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393709</v>
+        <v>392050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422462</v>
+        <v>420356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8333897455051066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8061010131928718</v>
+        <v>0.8027059823318851</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8649730411557748</v>
+        <v>0.8606602293909376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1053</v>
@@ -854,19 +854,19 @@
         <v>884469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>860448</v>
+        <v>861024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>905984</v>
+        <v>904239</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8512459871531328</v>
+        <v>0.8512459871531326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8281273036849076</v>
+        <v>0.8286811713884372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8719527172226794</v>
+        <v>0.8702732952728421</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>53146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40408</v>
+        <v>41331</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68785</v>
+        <v>69173</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1099847363792786</v>
+        <v>0.1099847363792785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08362324293591737</v>
+        <v>0.08553473501425225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1423492663133609</v>
+        <v>0.1431515664450715</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -979,19 +979,19 @@
         <v>74179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61188</v>
+        <v>61564</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87952</v>
+        <v>88707</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1753040938878768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1446037032823722</v>
+        <v>0.1454912269006996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2078533568584833</v>
+        <v>0.2096387135383643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -1000,19 +1000,19 @@
         <v>127325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108854</v>
+        <v>110437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149100</v>
+        <v>147602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1404798727594117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1201010726888738</v>
+        <v>0.12184764652366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1645048999392365</v>
+        <v>0.1628519975124725</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>430066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414427</v>
+        <v>414039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>442804</v>
+        <v>441881</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8900152636207215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8576507336866387</v>
+        <v>0.8568484335549278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9163767570640826</v>
+        <v>0.9144652649857478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>485</v>
@@ -1050,19 +1050,19 @@
         <v>348964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>335191</v>
+        <v>334436</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>361955</v>
+        <v>361579</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8246959061121231</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7921466431415168</v>
+        <v>0.7903612864616363</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.855396296717628</v>
+        <v>0.8545087730993006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -1071,19 +1071,19 @@
         <v>779030</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>757255</v>
+        <v>758753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>797501</v>
+        <v>795918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8595201272405885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8354951000607636</v>
+        <v>0.8371480024875275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8798989273111261</v>
+        <v>0.87815235347634</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>72279</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57951</v>
+        <v>57785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90101</v>
+        <v>88807</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1532594912148677</v>
+        <v>0.1532594912148678</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1228789206857491</v>
+        <v>0.1225260272048455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1910486206031032</v>
+        <v>0.1883052738954817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -1196,19 +1196,19 @@
         <v>49880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41179</v>
+        <v>40258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60123</v>
+        <v>60558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.266029534003223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.219622365331451</v>
+        <v>0.2147145583523253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3206598913306055</v>
+        <v>0.3229809657243868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -1217,19 +1217,19 @@
         <v>122159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104078</v>
+        <v>105843</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142463</v>
+        <v>144837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1853392789994874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1579076917245234</v>
+        <v>0.1605844998671358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2161447655272639</v>
+        <v>0.2197460761444203</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>399333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>381511</v>
+        <v>382805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413661</v>
+        <v>413827</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8467405087851323</v>
+        <v>0.8467405087851322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8089513793968968</v>
+        <v>0.8116947261045184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8771210793142508</v>
+        <v>0.8774739727951546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -1267,19 +1267,19 @@
         <v>137617</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127374</v>
+        <v>126939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146318</v>
+        <v>147239</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.733970465996777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6793401086693948</v>
+        <v>0.6770190342756129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7803776346685491</v>
+        <v>0.7852854416476746</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>615</v>
@@ -1288,19 +1288,19 @@
         <v>536950</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516646</v>
+        <v>514272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555031</v>
+        <v>553266</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8146607210005128</v>
+        <v>0.8146607210005126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7838552344727363</v>
+        <v>0.7802539238555796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8420923082754765</v>
+        <v>0.8394155001328644</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>168533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145243</v>
+        <v>145298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193485</v>
+        <v>191784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1489011893328882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1283239849516813</v>
+        <v>0.1283729847782779</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1709472067589437</v>
+        <v>0.1694442206041075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>221</v>
@@ -1413,19 +1413,19 @@
         <v>152795</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133006</v>
+        <v>133158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172118</v>
+        <v>172881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1774190970999107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1544405637635392</v>
+        <v>0.1546170213220184</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1998562104396897</v>
+        <v>0.2007414364523741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>404</v>
@@ -1434,19 +1434,19 @@
         <v>321328</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>289980</v>
+        <v>290695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353622</v>
+        <v>353899</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1612239589706508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1454953542213241</v>
+        <v>0.1458541642305015</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1774270988170899</v>
+        <v>0.1775662303254722</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>963310</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>938358</v>
+        <v>940059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>986600</v>
+        <v>986545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8510988106671118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8290527932410563</v>
+        <v>0.8305557793958924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8716760150483185</v>
+        <v>0.8716270152217221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1009</v>
@@ -1484,19 +1484,19 @@
         <v>708416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>689093</v>
+        <v>688330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>728205</v>
+        <v>728053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8225809029000893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.80014378956031</v>
+        <v>0.7992585635476258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8455594362364606</v>
+        <v>0.8453829786779814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1944</v>
@@ -1505,19 +1505,19 @@
         <v>1671726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1639432</v>
+        <v>1639155</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1703074</v>
+        <v>1702359</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8387760410293491</v>
+        <v>0.8387760410293493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8225729011829098</v>
+        <v>0.8224337696745279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8545046457786757</v>
+        <v>0.8541458357694984</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>65106</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51954</v>
+        <v>51589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81301</v>
+        <v>83081</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1146306936565494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09147360790905459</v>
+        <v>0.09083201860679607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.143144489307143</v>
+        <v>0.1462788941324211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -1630,19 +1630,19 @@
         <v>224010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203788</v>
+        <v>203518</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246011</v>
+        <v>246224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2696154918388809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.245276588008353</v>
+        <v>0.2449511204286733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2960951910684547</v>
+        <v>0.2963517093033976</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>433</v>
@@ -1651,19 +1651,19 @@
         <v>289116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>260920</v>
+        <v>264392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316696</v>
+        <v>319056</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2066866483827097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1865295790336948</v>
+        <v>0.1890115851971395</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2264030156406072</v>
+        <v>0.2280903916343685</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>502858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486663</v>
+        <v>484883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>516010</v>
+        <v>516375</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8853693063434507</v>
+        <v>0.8853693063434506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8568555106928569</v>
+        <v>0.8537211058675792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9085263920909454</v>
+        <v>0.9091679813932041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>932</v>
@@ -1701,19 +1701,19 @@
         <v>606840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>584839</v>
+        <v>584626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>627062</v>
+        <v>627332</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7303845081611192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7039048089315454</v>
+        <v>0.7036482906966024</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7547234119916472</v>
+        <v>0.7550488795713267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1404</v>
@@ -1722,19 +1722,19 @@
         <v>1109698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1082118</v>
+        <v>1079758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1137894</v>
+        <v>1134422</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7933133516172903</v>
+        <v>0.7933133516172902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7735969843593931</v>
+        <v>0.7719096083656315</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8134704209663054</v>
+        <v>0.8109884148028604</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>18747</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9451</v>
+        <v>9252</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37122</v>
+        <v>34029</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07902439197468066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03984079349968214</v>
+        <v>0.03899921427681478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1564840746877053</v>
+        <v>0.1434456411786005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>287</v>
@@ -1847,19 +1847,19 @@
         <v>180640</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160240</v>
+        <v>162817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>201623</v>
+        <v>203017</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2139572902004125</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1897943506519443</v>
+        <v>0.1928469944860716</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.238809922808552</v>
+        <v>0.2404616628588882</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>301</v>
@@ -1868,19 +1868,19 @@
         <v>199387</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177692</v>
+        <v>177118</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227030</v>
+        <v>226942</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1843599078450982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1643002038891197</v>
+        <v>0.1637689347744694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2099197861241889</v>
+        <v>0.2098385959481971</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>218481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200106</v>
+        <v>203199</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227777</v>
+        <v>227976</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9209756080253193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8435159253122944</v>
+        <v>0.8565543588213993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9601592065003177</v>
+        <v>0.9610007857231851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>872</v>
@@ -1918,19 +1918,19 @@
         <v>663641</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>642658</v>
+        <v>641264</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>684041</v>
+        <v>681464</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7860427097995873</v>
+        <v>0.7860427097995876</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7611900771914478</v>
+        <v>0.759538337141112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8102056493480556</v>
+        <v>0.8071530055139283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>970</v>
@@ -1939,19 +1939,19 @@
         <v>882122</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>854479</v>
+        <v>854567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>903817</v>
+        <v>904391</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8156400921549019</v>
+        <v>0.815640092154902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7900802138758114</v>
+        <v>0.790161404051803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8356997961108806</v>
+        <v>0.836231065225531</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>450996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>411068</v>
+        <v>414423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>491472</v>
+        <v>499168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1310091840858821</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1194104647871964</v>
+        <v>0.1203852619676874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1427669551308325</v>
+        <v>0.1450026427717938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1162</v>
@@ -2064,19 +2064,19 @@
         <v>762878</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>728216</v>
+        <v>723806</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>807626</v>
+        <v>804505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2098474974118767</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2003128553580173</v>
+        <v>0.1990998018244862</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2221565475245617</v>
+        <v>0.2212978920013877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1649</v>
@@ -2085,19 +2085,19 @@
         <v>1213874</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1150681</v>
+        <v>1160021</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1269755</v>
+        <v>1280992</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1715027647749966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1625744827065639</v>
+        <v>0.163894121261543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1793979653012794</v>
+        <v>0.1809855128623387</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2991480</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2951004</v>
+        <v>2943308</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3031408</v>
+        <v>3028053</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8689908159141181</v>
+        <v>0.868990815914118</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8572330448691676</v>
+        <v>0.8549973572282062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8805895352128037</v>
+        <v>0.8796147380323126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4082</v>
@@ -2135,19 +2135,19 @@
         <v>2872515</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2827767</v>
+        <v>2830888</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2907177</v>
+        <v>2911587</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7901525025881232</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.777843452475438</v>
+        <v>0.7787021079986122</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7996871446419824</v>
+        <v>0.8009001981755137</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6895</v>
@@ -2156,19 +2156,19 @@
         <v>5863995</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5808114</v>
+        <v>5796877</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5927188</v>
+        <v>5917848</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8284972352250033</v>
+        <v>0.8284972352250034</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8206020346987206</v>
+        <v>0.8190144871376612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8374255172934362</v>
+        <v>0.836105878738457</v>
       </c>
     </row>
     <row r="24">
